--- a/TA buku/Results/Calculation/plsa-dewi.xlsx
+++ b/TA buku/Results/Calculation/plsa-dewi.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="G2">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="H2">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,25 +464,25 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>93</v>
       </c>
       <c r="F3">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="G3">
         <v>0.28</v>
       </c>
       <c r="H3">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="I3">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F4">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="H4">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I4">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,25 +522,25 @@
         <v>75</v>
       </c>
       <c r="C5">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>55</v>
       </c>
       <c r="F5">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="G5">
         <v>0.58</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="I5">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
